--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,54 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>日期</t>
+    <t>时间（s）</t>
   </si>
   <si>
-    <t>用户数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-  </si>
-  <si>
-    <t>2号</t>
-  </si>
-  <si>
-    <t>3号</t>
-  </si>
-  <si>
-    <t>4号</t>
-  </si>
-  <si>
-    <t>5号</t>
-  </si>
-  <si>
-    <t>6号</t>
-  </si>
-  <si>
-    <t>7号</t>
-  </si>
-  <si>
-    <t>8号</t>
-  </si>
-  <si>
-    <t>9号</t>
+    <t>速度(km/60s)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,7 +674,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1039,7 +999,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.25" outlineLevelCol="3"/>
@@ -1058,78 +1018,66 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="A2" s="6">
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="4">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="8">
+        <v>0.375</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="8">
+        <v>0.395833333333333</v>
       </c>
       <c r="B4" s="4">
-        <v>33</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" s="8">
+        <v>0.458333333333333</v>
       </c>
       <c r="B5" s="4">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+      <c r="A6" s="8">
+        <v>0.625</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="A7" s="8">
+        <v>0.708333333333333</v>
       </c>
       <c r="B7" s="4">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>12</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>34</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>133</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
